--- a/_assets/Data/_raw/_StationData.xlsx
+++ b/_assets/Data/_raw/_StationData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diogovalentepolonia/Projects/PolitcalDataScience/_assets/Data/_raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{556C6C05-9599-8841-A9E5-DE5B6F8633CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DAA86EA-EF78-E64D-A921-9FA82BAE7346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15700" activeTab="1" xr2:uid="{33400322-344B-B841-B43B-F92F05279E36}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15700" xr2:uid="{33400322-344B-B841-B43B-F92F05279E36}"/>
   </bookViews>
   <sheets>
     <sheet name="Air_Stations" sheetId="1" r:id="rId1"/>
@@ -444,10 +444,10 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Parque OHiggins</t>
-  </si>
-  <si>
     <t>Closed</t>
+  </si>
+  <si>
+    <t>OHiggins</t>
   </si>
 </sst>
 </file>
@@ -827,7 +827,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E07E1EBE-4F53-9740-9828-70532E38E7F9}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -923,7 +923,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B9">
         <v>345673</v>
@@ -952,8 +952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117BA247-4001-CC4E-A825-A9A78BFE38F0}">
   <dimension ref="A1:E120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -976,7 +976,7 @@
         <v>133</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
